--- a/biology/Zoologie/Entomostraca/Entomostraca.xlsx
+++ b/biology/Zoologie/Entomostraca/Entomostraca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entomocostraca
 Les Entomostraca ou Entomostracea (Entomostracés), du grec ancien ἔντομα, éntoma, « insecte » et ὄστρακον, ostrakon, « coquille », constituaient une sous-classe historique de crustacés, aujourd'hui tombée en désuétude. Avec les Malacostraca, c'était l'une des deux grandes lignées de crustacés qui regroupait les « crustacés inférieurs » comme les anatifes, les daphnies, etc.
@@ -512,7 +524,9 @@
           <t>Classification historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>embranchement Arthropoda
 classe Crustacea
@@ -550,7 +564,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Müller, 1785 : Entomostraca seu insecta testacea, quae in aquis Daniae et Norvegiae reperit. pp. 1-190 (texte intégral) (la).</t>
         </is>
